--- a/TX_iir_llpf_calc.xlsx
+++ b/TX_iir_llpf_calc.xlsx
@@ -13,7 +13,7 @@
     <sheet name="2nd order LPFz" sheetId="1" r:id="rId4"/>
     <sheet name="LFz" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="B4">
         <f>2*PI()*B2</f>
-        <v>3769.9111843077517</v>
+        <v>942.47779607693792</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="B5">
         <f>1/B3</f>
-        <v>3.4722222222222222E-5</v>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -858,7 +858,7 @@
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>3775.3034581577217</v>
+        <v>942.48714173353517</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="B8">
         <f>B6*B5</f>
-        <v>0.13108692563047644</v>
+        <v>1.0908415992286286E-2</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="B9">
         <f>2+(B8)</f>
-        <v>2.1310869256304765</v>
+        <v>2.0109084159922861</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -894,7 +894,7 @@
       </c>
       <c r="B10">
         <f>2-B8</f>
-        <v>1.8689130743695235</v>
+        <v>1.9890915840077137</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -903,7 +903,7 @@
       </c>
       <c r="B12">
         <f>B10/B9</f>
-        <v>0.87697646299275678</v>
+        <v>0.98915075803001851</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="B13">
         <f>B8/B9</f>
-        <v>6.1511768503621556E-2</v>
+        <v>5.4246209849907606E-3</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -927,7 +927,7 @@
       </c>
       <c r="B14">
         <f>B8/B9</f>
-        <v>6.1511768503621556E-2</v>
+        <v>5.4246209849907606E-3</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="B22">
         <f>ROUND(B21*B13*B18,0)</f>
-        <v>8062</v>
+        <v>711</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="B23">
         <f>ROUND(B21*B14*B18,0)</f>
-        <v>8062</v>
+        <v>711</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -994,7 +994,7 @@
       </c>
       <c r="B24">
         <f>ROUND(B21*B12,0)</f>
-        <v>28737</v>
+        <v>32412</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B29">
         <f>B13*B13</f>
-        <v>3.7836976644431289E-3</v>
+        <v>2.9426512830802129E-5</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B30">
         <f>2*B13*B14</f>
-        <v>7.5673953288862578E-3</v>
+        <v>5.8853025661604257E-5</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B31">
         <f>B14*B14</f>
-        <v>3.7836976644431289E-3</v>
+        <v>2.9426512830802129E-5</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B33">
         <f>2*B12</f>
-        <v>1.7539529259855136</v>
+        <v>1.978301516060037</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B34">
         <f>-B12*B12</f>
-        <v>-0.76908771664328612</v>
+        <v>-0.97841922211136023</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B38">
         <f>ROUND(B29*B27*B37,0)</f>
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B39">
         <f>ROUND(B30*B27*B37,0)</f>
-        <v>248</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B40">
         <f>ROUND(B31*B27*B37,0)</f>
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B41">
         <f>ROUND(B33*B37,0)</f>
-        <v>28737</v>
+        <v>32412</v>
       </c>
       <c r="D41" t="s">
         <v>20</v>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B42">
         <f>ROUND(B34*B37,0)</f>
-        <v>-12601</v>
+        <v>-16030</v>
       </c>
       <c r="D42" t="s">
         <v>20</v>
